--- a/attendance_report_2025-10-26.xlsx
+++ b/attendance_report_2025-10-26.xlsx
@@ -35,11 +35,11 @@
     </font>
     <font>
       <b val="1"/>
-      <color rgb="00006100"/>
+      <color rgb="009C0006"/>
     </font>
     <font>
       <b val="1"/>
-      <color rgb="009C0006"/>
+      <color rgb="00006100"/>
     </font>
   </fonts>
   <fills count="5">
@@ -57,14 +57,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C6EFCE"/>
-        <bgColor rgb="00C6EFCE"/>
+        <fgColor rgb="00FFC7CE"/>
+        <bgColor rgb="00FFC7CE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFC7CE"/>
-        <bgColor rgb="00FFC7CE"/>
+        <fgColor rgb="00C6EFCE"/>
+        <bgColor rgb="00C6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -465,7 +465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,6 +478,7 @@
     <col width="18" customWidth="1" min="3" max="3"/>
     <col width="18" customWidth="1" min="4" max="4"/>
     <col width="18" customWidth="1" min="5" max="5"/>
+    <col width="18" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -506,6 +507,11 @@
           <t>2025-10-26 (L3)</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-26 (L4)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -518,17 +524,22 @@
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E2" s="4" t="inlineStr">
+        <is>
           <t>Present</t>
         </is>
       </c>
-      <c r="D2" s="4" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>Present</t>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Absent</t>
         </is>
       </c>
     </row>
@@ -541,19 +552,24 @@
           <t>Vaishnavi Zodge</t>
         </is>
       </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="D3" s="4" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="E3" s="4" t="inlineStr">
-        <is>
-          <t>Absent</t>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F3" s="4" t="inlineStr">
+        <is>
+          <t>Present</t>
         </is>
       </c>
     </row>
@@ -566,17 +582,22 @@
           <t>Sanika Desai</t>
         </is>
       </c>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="D4" s="4" t="inlineStr">
-        <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="E4" s="4" t="inlineStr">
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="F4" s="3" t="inlineStr">
         <is>
           <t>Absent</t>
         </is>
@@ -591,17 +612,22 @@
           <t>Amar Dighe</t>
         </is>
       </c>
-      <c r="C5" s="3" t="inlineStr">
+      <c r="C5" s="4" t="inlineStr">
         <is>
           <t>Present</t>
         </is>
       </c>
-      <c r="D5" s="3" t="inlineStr">
+      <c r="D5" s="4" t="inlineStr">
         <is>
           <t>Present</t>
         </is>
       </c>
-      <c r="E5" s="3" t="inlineStr">
+      <c r="E5" s="4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F5" s="4" t="inlineStr">
         <is>
           <t>Present</t>
         </is>
